--- a/xlsx/節日_intext.xlsx
+++ b/xlsx/節日_intext.xlsx
@@ -29,7 +29,7 @@
     <t>节日 (天主教)</t>
   </si>
   <si>
-    <t>政策_政策_美國_節日</t>
+    <t>体育运动_体育运动_LGBT_節日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
